--- a/examples/web_data/presidents.xlsx
+++ b/examples/web_data/presidents.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P_Apps\Examples\Web_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P_Apps\examples\web_data\"/>
       <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>
@@ -36,15 +36,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
-    <t>Presidency</t>
+    <t>#</t>
+  </si>
+  <si>
+    <t>President</t>
   </si>
   <si>
     <t>Period</t>
   </si>
   <si>
-    <t>President</t>
-  </si>
-  <si>
     <t>Party</t>
   </si>
   <si>
@@ -54,12 +54,12 @@
     <t>Vice President</t>
   </si>
   <si>
+    <t>George Washington (1732–1799)</t>
+  </si>
+  <si>
     <t>April 30, 1789 – March 4, 1797</t>
   </si>
   <si>
-    <t>George Washington (1732–1799)</t>
-  </si>
-  <si>
     <t>Unaffiliated</t>
   </si>
   <si>
@@ -69,24 +69,24 @@
     <t xml:space="preserve">John Adams,  </t>
   </si>
   <si>
+    <t>John Adams (1735–1826)</t>
+  </si>
+  <si>
     <t>March 4, 1797 – March 4, 1801</t>
   </si>
   <si>
-    <t>John Adams (1735–1826)</t>
-  </si>
-  <si>
     <t>Federalist</t>
   </si>
   <si>
     <t>Thomas Jefferson</t>
   </si>
   <si>
+    <t>Thomas Jefferson (1743–1826)</t>
+  </si>
+  <si>
     <t>March 4, 1801 – March 4, 1809</t>
   </si>
   <si>
-    <t>Thomas Jefferson (1743–1826)</t>
-  </si>
-  <si>
     <t>Democratic-Republican</t>
   </si>
   <si>
@@ -96,48 +96,48 @@
     <t>Aaron Burr, George Clinton</t>
   </si>
   <si>
+    <t>James Madison (1751–1836)</t>
+  </si>
+  <si>
     <t>March 4, 1809 – March 4, 1817</t>
   </si>
   <si>
-    <t>James Madison (1751–1836)</t>
-  </si>
-  <si>
     <t>1808, 1812</t>
   </si>
   <si>
     <t xml:space="preserve"> , Vacant after Apr. 20, 1812, Elbridge Gerry, Vacant after Nov. 23, 1814</t>
   </si>
   <si>
+    <t>James Monroe (1758–1831)</t>
+  </si>
+  <si>
     <t>March 4, 1817 – March 4, 1825</t>
   </si>
   <si>
-    <t>James Monroe (1758–1831)</t>
-  </si>
-  <si>
     <t>1816, 1820</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel D. Tompkins,  </t>
   </si>
   <si>
+    <t>John Quincy Adams (1767–1848)</t>
+  </si>
+  <si>
     <t>March 4, 1825 – March 4, 1829</t>
   </si>
   <si>
-    <t>John Quincy Adams (1767–1848)</t>
-  </si>
-  <si>
     <t xml:space="preserve">1824,  </t>
   </si>
   <si>
     <t xml:space="preserve">John C. Calhoun,  </t>
   </si>
   <si>
+    <t>Andrew Jackson (1767–1845)</t>
+  </si>
+  <si>
     <t>March 4, 1829 – March 4, 1837</t>
   </si>
   <si>
-    <t>Andrew Jackson (1767–1845)</t>
-  </si>
-  <si>
     <t>Democratic</t>
   </si>
   <si>
@@ -147,90 +147,90 @@
     <t xml:space="preserve"> , Vacant after Dec. 28, 1832, Martin Van Buren</t>
   </si>
   <si>
+    <t>Martin Van Buren (1782–1862)</t>
+  </si>
+  <si>
     <t>March 4, 1837 – March 4, 1841</t>
   </si>
   <si>
-    <t>Martin Van Buren (1782–1862)</t>
-  </si>
-  <si>
     <t>Richard Mentor Johnson</t>
   </si>
   <si>
+    <t>William Henry Harrison (1773–1841)</t>
+  </si>
+  <si>
     <t>March 4, 1841 – April 4, 1841</t>
   </si>
   <si>
-    <t>William Henry Harrison (1773–1841)</t>
-  </si>
-  <si>
     <t>Whig</t>
   </si>
   <si>
     <t>John Tyler</t>
   </si>
   <si>
+    <t>John Tyler (1790–1862)</t>
+  </si>
+  <si>
     <t>April 4, 1841 – March 4, 1845</t>
   </si>
   <si>
-    <t>John Tyler (1790–1862)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Vacant throughout presidency,  </t>
   </si>
   <si>
+    <t>James K. Polk (1795–1849)</t>
+  </si>
+  <si>
     <t>March 4, 1845 – March 4, 1849</t>
   </si>
   <si>
-    <t>James K. Polk (1795–1849)</t>
-  </si>
-  <si>
     <t>George M. Dallas</t>
   </si>
   <si>
+    <t>Zachary Taylor (1784–1850)</t>
+  </si>
+  <si>
     <t>March 4, 1849 – July 9, 1850</t>
   </si>
   <si>
-    <t>Zachary Taylor (1784–1850)</t>
-  </si>
-  <si>
     <t>Millard Fillmore</t>
   </si>
   <si>
+    <t>Millard Fillmore (1800–1874)</t>
+  </si>
+  <si>
     <t>July 9, 1850 – March 4, 1853</t>
   </si>
   <si>
-    <t>Millard Fillmore (1800–1874)</t>
-  </si>
-  <si>
     <t>Vacant throughout presidency</t>
   </si>
   <si>
+    <t>Franklin Pierce (1804–1869)</t>
+  </si>
+  <si>
     <t>March 4, 1853 – March 4, 1857</t>
   </si>
   <si>
-    <t>Franklin Pierce (1804–1869)</t>
-  </si>
-  <si>
     <t>William R. King, Vacant after Apr. 18, 1853</t>
   </si>
   <si>
+    <t>James Buchanan (1791–1868)</t>
+  </si>
+  <si>
     <t>March 4, 1857 – March 4, 1861</t>
   </si>
   <si>
-    <t>James Buchanan (1791–1868)</t>
-  </si>
-  <si>
     <t>John C. Breckinridge</t>
   </si>
   <si>
+    <t>Abraham Lincoln (1809–1865)</t>
+  </si>
+  <si>
     <t>March 4, 1861 – April 15, 1865</t>
   </si>
   <si>
-    <t>Abraham Lincoln (1809–1865)</t>
-  </si>
-  <si>
     <t>Republican</t>
   </si>
   <si>
@@ -240,292 +240,292 @@
     <t>Hannibal Hamlin, Andrew Johnson</t>
   </si>
   <si>
+    <t>Andrew Johnson (1808–1875)</t>
+  </si>
+  <si>
     <t>April 15, 1865 – March 4, 1869</t>
   </si>
   <si>
-    <t>Andrew Johnson (1808–1875)</t>
-  </si>
-  <si>
     <t>National Union</t>
   </si>
   <si>
+    <t>Ulysses S. Grant (1822–1885)</t>
+  </si>
+  <si>
     <t>March 4, 1869 – March 4, 1877</t>
   </si>
   <si>
-    <t>Ulysses S. Grant (1822–1885)</t>
-  </si>
-  <si>
     <t>1868, 1872</t>
   </si>
   <si>
     <t>Schuyler Colfax, Henry Wilson, Vacant after Nov. 22, 1875</t>
   </si>
   <si>
+    <t>Rutherford B. Hayes (1822–1893)</t>
+  </si>
+  <si>
     <t>March 4, 1877 – March 4, 1881</t>
   </si>
   <si>
-    <t>Rutherford B. Hayes (1822–1893)</t>
-  </si>
-  <si>
     <t>William A. Wheeler</t>
   </si>
   <si>
+    <t>James A. Garfield (1831–1881)</t>
+  </si>
+  <si>
     <t>March 4, 1881 – September 19, 1881</t>
   </si>
   <si>
-    <t>James A. Garfield (1831–1881)</t>
-  </si>
-  <si>
     <t>Chester A. Arthur</t>
   </si>
   <si>
+    <t>Chester A. Arthur (1829–1886)</t>
+  </si>
+  <si>
     <t>September 19, 1881 – March 4, 1885</t>
   </si>
   <si>
-    <t>Chester A. Arthur (1829–1886)</t>
+    <t>Grover Cleveland (1837–1908)</t>
   </si>
   <si>
     <t>March 4, 1885 – March 4, 1889</t>
   </si>
   <si>
-    <t>Grover Cleveland (1837–1908)</t>
-  </si>
-  <si>
     <t>1884, 1892</t>
   </si>
   <si>
     <t>Thomas A. Hendricks, Vacant after Nov. 25, 1885, Adlai Stevenson I</t>
   </si>
   <si>
+    <t>Benjamin Harrison (1833–1901)</t>
+  </si>
+  <si>
     <t>March 4, 1889 – March 4, 1893</t>
   </si>
   <si>
-    <t>Benjamin Harrison (1833–1901)</t>
-  </si>
-  <si>
     <t>Levi P. Morton</t>
   </si>
   <si>
+    <t>William McKinley (1843–1901)</t>
+  </si>
+  <si>
     <t>March 4, 1897 – September 14, 1901</t>
   </si>
   <si>
-    <t>William McKinley (1843–1901)</t>
-  </si>
-  <si>
     <t>1896, 1900</t>
   </si>
   <si>
     <t>Garret Hobart, Vacant after Nov. 21, 1899, Theodore Roosevelt</t>
   </si>
   <si>
+    <t>Theodore Roosevelt (1858–1919)</t>
+  </si>
+  <si>
     <t>September 14, 1901 – March 4, 1909</t>
   </si>
   <si>
-    <t>Theodore Roosevelt (1858–1919)</t>
-  </si>
-  <si>
     <t>Vacant through Mar. 4, 1905, Charles W. Fairbanks</t>
   </si>
   <si>
+    <t>William Howard Taft (1857–1930)</t>
+  </si>
+  <si>
     <t>March 4, 1909 – March 4, 1913</t>
   </si>
   <si>
-    <t>William Howard Taft (1857–1930)</t>
-  </si>
-  <si>
     <t>James S. Sherman, Vacant after Oct. 30, 1912</t>
   </si>
   <si>
+    <t>Woodrow Wilson (1856–1924)</t>
+  </si>
+  <si>
     <t>March 4, 1913 – March 4, 1921</t>
   </si>
   <si>
-    <t>Woodrow Wilson (1856–1924)</t>
-  </si>
-  <si>
     <t>1912, 1916</t>
   </si>
   <si>
     <t xml:space="preserve">Thomas R. Marshall,  </t>
   </si>
   <si>
+    <t>Warren G. Harding (1865–1923)</t>
+  </si>
+  <si>
     <t>March 4, 1921 – August 2, 1923</t>
   </si>
   <si>
-    <t>Warren G. Harding (1865–1923)</t>
-  </si>
-  <si>
     <t>Calvin Coolidge</t>
   </si>
   <si>
+    <t>Calvin Coolidge (1872–1933)</t>
+  </si>
+  <si>
     <t>August 2, 1923 – March 4, 1929</t>
   </si>
   <si>
-    <t>Calvin Coolidge (1872–1933)</t>
-  </si>
-  <si>
     <t>Vacant through Mar. 4, 1925, Charles G. Dawes</t>
   </si>
   <si>
+    <t>Herbert Hoover (1874–1964)</t>
+  </si>
+  <si>
     <t>March 4, 1929 – March 4, 1933</t>
   </si>
   <si>
-    <t>Herbert Hoover (1874–1964)</t>
-  </si>
-  <si>
     <t>Charles Curtis</t>
   </si>
   <si>
+    <t>Franklin D. Roosevelt (1882–1945)</t>
+  </si>
+  <si>
     <t>March 4, 1933 – April 12, 1945</t>
   </si>
   <si>
-    <t>Franklin D. Roosevelt (1882–1945)</t>
-  </si>
-  <si>
     <t>1932, 1936, 1940, 1944</t>
   </si>
   <si>
     <t>John Nance Garner,  , Henry A. Wallace, Harry S. Truman</t>
   </si>
   <si>
+    <t>Harry S. Truman (1884–1972)</t>
+  </si>
+  <si>
     <t>April 12, 1945 – January 20, 1953</t>
   </si>
   <si>
-    <t>Harry S. Truman (1884–1972)</t>
-  </si>
-  <si>
     <t>Vacant through Jan. 20, 1949, Alben W. Barkley</t>
   </si>
   <si>
+    <t>Dwight D. Eisenhower (1890–1969)</t>
+  </si>
+  <si>
     <t>January 20, 1953 – January 20, 1961</t>
   </si>
   <si>
-    <t>Dwight D. Eisenhower (1890–1969)</t>
-  </si>
-  <si>
     <t>1952, 1956</t>
   </si>
   <si>
     <t xml:space="preserve">Richard Nixon,  </t>
   </si>
   <si>
+    <t>John F. Kennedy (1917–1963)</t>
+  </si>
+  <si>
     <t>January 20, 1961 – November 22, 1963</t>
   </si>
   <si>
-    <t>John F. Kennedy (1917–1963)</t>
-  </si>
-  <si>
     <t>Lyndon B. Johnson</t>
   </si>
   <si>
+    <t>Lyndon B. Johnson (1908–1973)</t>
+  </si>
+  <si>
     <t>November 22, 1963 – January 20, 1969</t>
   </si>
   <si>
-    <t>Lyndon B. Johnson (1908–1973)</t>
-  </si>
-  <si>
     <t>Vacant through Jan. 20, 1965, Hubert Humphrey</t>
   </si>
   <si>
+    <t>Richard Nixon (1913–1994)</t>
+  </si>
+  <si>
     <t>January 20, 1969 – August 9, 1974</t>
   </si>
   <si>
-    <t>Richard Nixon (1913–1994)</t>
-  </si>
-  <si>
     <t>1968, 1972</t>
   </si>
   <si>
     <t>Spiro Agnew,  , Vacant, Oct. 10 – Dec. 6, 1973, Gerald Ford</t>
   </si>
   <si>
+    <t>Gerald Ford (1913–2006)</t>
+  </si>
+  <si>
     <t>August 9, 1974 – January 20, 1977</t>
   </si>
   <si>
-    <t>Gerald Ford (1913–2006)</t>
-  </si>
-  <si>
     <t>Vacant through Dec. 19, 1974, Nelson Rockefeller</t>
   </si>
   <si>
+    <t>Jimmy Carter (b. 1924)</t>
+  </si>
+  <si>
     <t>January 20, 1977 – January 20, 1981</t>
   </si>
   <si>
-    <t>Jimmy Carter (b. 1924)</t>
-  </si>
-  <si>
     <t>Walter Mondale</t>
   </si>
   <si>
+    <t>Ronald Reagan (1911–2004)</t>
+  </si>
+  <si>
     <t>January 20, 1981 – January 20, 1989</t>
   </si>
   <si>
-    <t>Ronald Reagan (1911–2004)</t>
-  </si>
-  <si>
     <t>1980, 1984</t>
   </si>
   <si>
     <t xml:space="preserve">George H. W. Bush,  </t>
   </si>
   <si>
+    <t>George H. W. Bush (1924–2018)</t>
+  </si>
+  <si>
     <t>January 20, 1989 – January 20, 1993</t>
   </si>
   <si>
-    <t>George H. W. Bush (1924–2018)</t>
-  </si>
-  <si>
     <t>Dan Quayle</t>
   </si>
   <si>
+    <t>Bill Clinton (b. 1946)</t>
+  </si>
+  <si>
     <t>January 20, 1993 – January 20, 2001</t>
   </si>
   <si>
-    <t>Bill Clinton (b. 1946)</t>
-  </si>
-  <si>
     <t>1992, 1996</t>
   </si>
   <si>
     <t xml:space="preserve">Al Gore,  </t>
   </si>
   <si>
+    <t>George W. Bush (b. 1946)</t>
+  </si>
+  <si>
     <t>January 20, 2001 – January 20, 2009</t>
   </si>
   <si>
-    <t>George W. Bush (b. 1946)</t>
-  </si>
-  <si>
     <t>2000, 2004</t>
   </si>
   <si>
     <t xml:space="preserve">Dick Cheney,  </t>
   </si>
   <si>
+    <t>Barack Obama (b. 1961)</t>
+  </si>
+  <si>
     <t>January 20, 2009 – January 20, 2017</t>
   </si>
   <si>
-    <t>Barack Obama (b. 1961)</t>
-  </si>
-  <si>
     <t>2008, 2012</t>
   </si>
   <si>
     <t xml:space="preserve">Joe Biden,  </t>
   </si>
   <si>
+    <t>Donald Trump (b. 1946)</t>
+  </si>
+  <si>
     <t>January 20, 2017 – January 20, 2021</t>
   </si>
   <si>
-    <t>Donald Trump (b. 1946)</t>
-  </si>
-  <si>
     <t>Mike Pence</t>
   </si>
   <si>
+    <t>Joe Biden (b. 1942)</t>
+  </si>
+  <si>
     <t>January 20, 2021 – Incumbent</t>
-  </si>
-  <si>
-    <t>Joe Biden (b. 1942)</t>
   </si>
   <si>
     <t>Kamala Harris</t>
